--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1064260.037013143</v>
+        <v>1081877.486877222</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.155295256393265</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>28.1947492807139</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>109.317049263441</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10.18456372565646</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10.53330870651032</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>174.9216662355853</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>151.2335519723081</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>338.1079641586243</v>
+        <v>12.28184589708156</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.35346505905475</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>190.2606141514371</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>95.01586906462475</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>76.60691003872032</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>253.9512290186734</v>
+        <v>196.6997841156788</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>196.4017961483599</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>23.34416082770995</v>
       </c>
       <c r="F11" t="n">
-        <v>48.28983649715861</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>205.1838575377005</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>126.9921629678194</v>
+        <v>325.8448859800878</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.93482921065052</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>74.02842076295256</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>29.73730052684033</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>35.21134837541705</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>32.83323659136505</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>136.0330956397393</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="F20" t="n">
-        <v>43.83162758969803</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>138.6444210303385</v>
       </c>
       <c r="T22" t="n">
-        <v>14.1921898795003</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>168.5177247035053</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>65.33825739391212</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>27.69650205144017</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.043187116399006</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>105.9626607935839</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>46.82402727824283</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>71.03196298775325</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>201.0130390227254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>289.3265275022432</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>25.87859906451874</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.1642706602414</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>171.0922273973414</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3034,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>174.1776403188361</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>284.2369493982754</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>7.601081015447462</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>87.38003424864942</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>188.2196394312111</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>201.6622187863209</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.67804628306391</v>
+        <v>115.6753271610352</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>27.5975409016182</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>56.31970481413543</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>184.0301397347014</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>209.5675193320712</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>306.7805968504931</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>89.87077690328843</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>6.380068175848154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>224.2650407293544</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>67.88571179025803</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4036,10 +4036,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>119.1208585623848</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>24.97436107625042</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.0172251110635</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432.425644570946</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="C2" t="n">
-        <v>432.425644570946</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="D2" t="n">
-        <v>432.425644570946</v>
+        <v>566.8162363079211</v>
       </c>
       <c r="E2" t="n">
-        <v>432.425644570946</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F2" t="n">
-        <v>166.047988003768</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052542</v>
@@ -4339,13 +4339,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298172</v>
+        <v>840.421463841153</v>
       </c>
       <c r="U2" t="n">
-        <v>432.425644570946</v>
+        <v>840.421463841153</v>
       </c>
       <c r="V2" t="n">
-        <v>432.425644570946</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="W2" t="n">
-        <v>432.425644570946</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="X2" t="n">
-        <v>432.425644570946</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="Y2" t="n">
-        <v>432.425644570946</v>
+        <v>574.0438072739749</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.544000427793</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>486.090971146666</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>337.1565614854147</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>177.9191064799592</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>31.3845485068442</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>31.3845485068442</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4409,25 +4409,25 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>268.397955125264</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4445,16 +4445,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>801.3675279810725</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>547.1301712528709</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>339.2786710473381</v>
       </c>
       <c r="Y3" t="n">
-        <v>828.7593374478611</v>
+        <v>131.5183722823842</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>650.177417354891</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="C4" t="n">
-        <v>481.2412344269841</v>
+        <v>660.4503008361324</v>
       </c>
       <c r="D4" t="n">
-        <v>331.1245950146483</v>
+        <v>510.3336614237967</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>362.4205678414036</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>215.5306203434932</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>46.96125969849666</v>
       </c>
       <c r="H4" t="n">
         <v>36.32155393434482</v>
@@ -4491,19 +4491,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="V4" t="n">
-        <v>878.1669682529083</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="W4" t="n">
-        <v>878.1669682529083</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="X4" t="n">
-        <v>650.177417354891</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="Y4" t="n">
-        <v>650.177417354891</v>
+        <v>829.3864837640393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.3341332603833</v>
+        <v>933.206221242662</v>
       </c>
       <c r="C5" t="n">
-        <v>382.3341332603833</v>
+        <v>564.2437043022503</v>
       </c>
       <c r="D5" t="n">
-        <v>382.3341332603833</v>
+        <v>205.9780056954998</v>
       </c>
       <c r="E5" t="n">
-        <v>382.3341332603833</v>
+        <v>53.21684208710778</v>
       </c>
       <c r="F5" t="n">
-        <v>375.3886325111799</v>
+        <v>46.2713413379043</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135736</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135736</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135736</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780279</v>
+        <v>108.4604468780275</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818694</v>
+        <v>270.9975490818686</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373985</v>
+        <v>509.5409587373977</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176483</v>
+        <v>806.6359018176465</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.15196005897</v>
+        <v>1113.151960058967</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836698</v>
+        <v>1389.251120836694</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921689</v>
+        <v>1590.394365921685</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567868</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567868</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567868</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567868</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="U5" t="n">
-        <v>1439.631434135148</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="V5" t="n">
-        <v>1108.568546791577</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="W5" t="n">
-        <v>755.7998915214632</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="X5" t="n">
-        <v>382.3341332603833</v>
+        <v>1319.806061306784</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.3341332603833</v>
+        <v>1319.806061306784</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.0248883123062</v>
+        <v>807.5508102433355</v>
       </c>
       <c r="C6" t="n">
-        <v>488.5718590311791</v>
+        <v>633.0977809622085</v>
       </c>
       <c r="D6" t="n">
-        <v>339.6374493699279</v>
+        <v>484.1633713009572</v>
       </c>
       <c r="E6" t="n">
-        <v>180.3999943644724</v>
+        <v>324.9259162955017</v>
       </c>
       <c r="F6" t="n">
-        <v>33.86543639135736</v>
+        <v>178.3913583223867</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135736</v>
+        <v>41.29317887525096</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135736</v>
+        <v>41.29317887525096</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135736</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="J6" t="n">
-        <v>124.0742315427344</v>
+        <v>184.305991640249</v>
       </c>
       <c r="K6" t="n">
-        <v>246.0013607545398</v>
+        <v>453.9778756130286</v>
       </c>
       <c r="L6" t="n">
-        <v>456.2699738772749</v>
+        <v>664.2464887357633</v>
       </c>
       <c r="M6" t="n">
-        <v>721.0003958340162</v>
+        <v>928.9769106925041</v>
       </c>
       <c r="N6" t="n">
-        <v>1007.146089245744</v>
+        <v>1215.122604104232</v>
       </c>
       <c r="O6" t="n">
-        <v>1246.693700419942</v>
+        <v>1454.670215278429</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.618711034411</v>
+        <v>1627.595225892898</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567868</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567868</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567868</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567868</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="U6" t="n">
-        <v>1501.089381031062</v>
+        <v>1465.155612223348</v>
       </c>
       <c r="V6" t="n">
-        <v>1501.089381031062</v>
+        <v>1230.003503991605</v>
       </c>
       <c r="W6" t="n">
-        <v>1246.852024302861</v>
+        <v>975.7661472634036</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.000524097328</v>
+        <v>975.7661472634036</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.2402253323742</v>
+        <v>975.7661472634036</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>816.0404022124167</v>
+        <v>596.8069776317958</v>
       </c>
       <c r="C7" t="n">
-        <v>647.1042192845098</v>
+        <v>427.8707947038889</v>
       </c>
       <c r="D7" t="n">
-        <v>496.9875798721741</v>
+        <v>277.7541552915532</v>
       </c>
       <c r="E7" t="n">
-        <v>349.074486289781</v>
+        <v>129.84106170916</v>
       </c>
       <c r="F7" t="n">
-        <v>202.1845387918706</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135736</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135736</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135736</v>
+        <v>33.86543639135727</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652203</v>
+        <v>36.28512133652185</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128599</v>
+        <v>170.0982437128596</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119589</v>
+        <v>396.8594047119584</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191541</v>
+        <v>646.3363778191533</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361658</v>
+        <v>895.3159625361648</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021381</v>
+        <v>1109.27261202138</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580467</v>
+        <v>1268.828805580466</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="T7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="U7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="V7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.862163397015</v>
+        <v>1006.444993360053</v>
       </c>
       <c r="X7" t="n">
-        <v>1218.481446186187</v>
+        <v>778.4554424620355</v>
       </c>
       <c r="Y7" t="n">
-        <v>997.6888670426564</v>
+        <v>778.4554424620355</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.507785786471</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.507785786471</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D8" t="n">
-        <v>1520.242087179721</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E8" t="n">
-        <v>1134.453834581477</v>
+        <v>672.5836882148155</v>
       </c>
       <c r="F8" t="n">
-        <v>723.4679297918692</v>
+        <v>261.597783425208</v>
       </c>
       <c r="G8" t="n">
-        <v>307.7631795161581</v>
+        <v>249.9334371899009</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056586</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.507785786471</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735143</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049862</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>349.276519562732</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800313</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800313</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1438.060467399387</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1685.375546116517</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C11" t="n">
         <v>1316.413029176106</v>
       </c>
       <c r="D11" t="n">
-        <v>958.1473305693551</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E11" t="n">
-        <v>572.3590779711108</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
         <v>523.5814653477182</v>
@@ -5038,13 +5038,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5059,10 +5059,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y11" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5108,25 +5108,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.5194080306463</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5141,13 +5141,13 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.2880032601528</v>
+        <v>182.143086683856</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3518203322459</v>
+        <v>182.143086683856</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2351809199101</v>
+        <v>182.143086683856</v>
       </c>
       <c r="E13" t="n">
-        <v>527.322087337517</v>
+        <v>182.143086683856</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396066</v>
+        <v>182.143086683856</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V13" t="n">
-        <v>1672.610059882606</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W13" t="n">
-        <v>1383.192889845646</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X13" t="n">
-        <v>1175.936468090393</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.936468090393</v>
+        <v>363.7915515140957</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1917.382287315189</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>1548.419770374778</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1190.154071768027</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5290,16 +5290,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V14" t="n">
-        <v>2788.565186649822</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W14" t="n">
-        <v>2435.796531379708</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X14" t="n">
-        <v>2307.521619291001</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y14" t="n">
-        <v>1917.382287315189</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="15">
@@ -5348,16 +5348,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>212.7293032143256</v>
+        <v>775.9570515689412</v>
       </c>
       <c r="C16" t="n">
-        <v>212.7293032143256</v>
+        <v>607.0208686410343</v>
       </c>
       <c r="D16" t="n">
-        <v>212.7293032143256</v>
+        <v>456.9042292286986</v>
       </c>
       <c r="E16" t="n">
-        <v>212.7293032143256</v>
+        <v>308.9911356463055</v>
       </c>
       <c r="F16" t="n">
-        <v>212.7293032143256</v>
+        <v>308.9911356463055</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>141.2882990210244</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5472,16 +5472,16 @@
         <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>996.7496307124713</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260938</v>
+        <v>775.9570515689412</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1672.191441142817</v>
+        <v>1624.638712032432</v>
       </c>
       <c r="C17" t="n">
-        <v>1672.191441142817</v>
+        <v>1255.67619509202</v>
       </c>
       <c r="D17" t="n">
-        <v>1313.925742536066</v>
+        <v>897.41049648527</v>
       </c>
       <c r="E17" t="n">
-        <v>928.1374899378218</v>
+        <v>511.6222438870257</v>
       </c>
       <c r="F17" t="n">
-        <v>517.1515851482143</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G17" t="n">
-        <v>102.0791349932107</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H17" t="n">
-        <v>102.0791349932107</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5536,31 +5536,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.628073993393</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V17" t="n">
-        <v>2788.565186649822</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W17" t="n">
-        <v>2435.796531379708</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X17" t="n">
-        <v>2062.330773118628</v>
+        <v>2014.778044008244</v>
       </c>
       <c r="Y17" t="n">
-        <v>1672.191441142817</v>
+        <v>1624.638712032432</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5600,16 +5600,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>249.7936412903424</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C19" t="n">
-        <v>249.7936412903424</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D19" t="n">
-        <v>99.67700187800671</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>99.67700187800671</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>99.67700187800671</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W19" t="n">
-        <v>880.2242361621296</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X19" t="n">
-        <v>652.2346852641123</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.4421061205821</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1311.909787855438</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C20" t="n">
-        <v>1311.909787855438</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D20" t="n">
-        <v>953.6440892486878</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E20" t="n">
-        <v>567.8558366504435</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>1698.50962791956</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>478.4305777370295</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C22" t="n">
-        <v>478.4305777370295</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>478.4305777370295</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1787.249678360878</v>
       </c>
       <c r="T22" t="n">
-        <v>1721.27311858249</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="U22" t="n">
-        <v>1432.170251708134</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="V22" t="n">
-        <v>1177.485763502247</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W22" t="n">
-        <v>888.0685934652865</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X22" t="n">
-        <v>660.0790425672692</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y22" t="n">
-        <v>660.0790425672692</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2047.583838282732</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C23" t="n">
-        <v>1678.62132134232</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.35562273557</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
         <v>108.5090151927147</v>
@@ -5989,10 +5989,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3155.385897666236</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3155.385897666236</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2824.323010322666</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2824.323010322666</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>2434.183678346854</v>
+        <v>1632.511388127729</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.3679798527295</v>
+        <v>725.9304417640992</v>
       </c>
       <c r="C25" t="n">
-        <v>511.4317969248226</v>
+        <v>556.9942588361923</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U25" t="n">
-        <v>1638.191681214136</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.507193008249</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W25" t="n">
-        <v>1094.090022971289</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X25" t="n">
-        <v>866.1004720732712</v>
+        <v>1128.371485737869</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.0164446829692</v>
+        <v>907.5789065943389</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1944.904841306683</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C26" t="n">
-        <v>1575.942324366272</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.154071768027</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052369</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V26" t="n">
-        <v>2755.806928794325</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W26" t="n">
-        <v>2708.509931543575</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X26" t="n">
-        <v>2335.044173282495</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y26" t="n">
-        <v>1944.904841306683</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.3679798527295</v>
+        <v>622.8136871311516</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>453.8775042032447</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124869</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
         <v>66.51211643218343</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V28" t="n">
-        <v>1513.842048484845</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W28" t="n">
-        <v>1310.798574724517</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X28" t="n">
-        <v>1082.809023826499</v>
+        <v>843.6062662746817</v>
       </c>
       <c r="Y28" t="n">
-        <v>862.0164446829692</v>
+        <v>622.8136871311516</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1517.887535471215</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C29" t="n">
-        <v>1517.887535471215</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D29" t="n">
-        <v>1159.621836864465</v>
+        <v>863.2862738200353</v>
       </c>
       <c r="E29" t="n">
-        <v>773.8335842662204</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
@@ -6475,7 +6475,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6484,31 +6484,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066531</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796417</v>
+        <v>2740.719419668211</v>
       </c>
       <c r="X29" t="n">
-        <v>1904.487375535337</v>
+        <v>2367.253661407131</v>
       </c>
       <c r="Y29" t="n">
-        <v>1904.487375535337</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6548,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6612,13 +6612,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,19 +6645,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1886.724577724613</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1695.038693551439</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1473.272078120965</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U31" t="n">
-        <v>1473.272078120965</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V31" t="n">
-        <v>1218.587589915078</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W31" t="n">
         <v>929.1704198781175</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2106.031998942028</v>
+        <v>1278.332234886374</v>
       </c>
       <c r="C32" t="n">
-        <v>1737.069482001617</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="D32" t="n">
-        <v>1378.803783394866</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E32" t="n">
-        <v>993.0155307966218</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F32" t="n">
-        <v>582.0296260070143</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V32" t="n">
-        <v>2866.09759726723</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W32" t="n">
-        <v>2866.09759726723</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X32" t="n">
-        <v>2492.63183900615</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y32" t="n">
-        <v>2492.63183900615</v>
+        <v>1664.932074950496</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>241.8928126690276</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="C34" t="n">
-        <v>234.2149530574645</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="D34" t="n">
-        <v>234.2149530574645</v>
+        <v>154.7747772894051</v>
       </c>
       <c r="E34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218343</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.740577577775</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W34" t="n">
-        <v>872.3234075408147</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X34" t="n">
-        <v>644.3338566427974</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y34" t="n">
-        <v>423.5412774992673</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.167438673965</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>298.629863103029</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6949,7 +6949,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6958,31 +6958,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3121.906610713899</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>3121.906610713899</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>3121.906610713899</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X35" t="n">
-        <v>3121.906610713899</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y35" t="n">
-        <v>2731.767278738087</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>380.4321398396067</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C37" t="n">
-        <v>380.4321398396067</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D37" t="n">
-        <v>380.4321398396067</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E37" t="n">
-        <v>380.4321398396067</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396067</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W37" t="n">
-        <v>872.3234075408147</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X37" t="n">
-        <v>644.3338566427974</v>
+        <v>963.5174547744541</v>
       </c>
       <c r="Y37" t="n">
-        <v>423.5412774992673</v>
+        <v>742.724875630924</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1533.918936517076</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="C38" t="n">
-        <v>1164.956419576664</v>
+        <v>1645.815527067831</v>
       </c>
       <c r="D38" t="n">
-        <v>1164.956419576664</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>779.1681669784198</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7195,31 +7195,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3268.717230887823</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3015.18675416166</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V38" t="n">
-        <v>2684.123866818089</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W38" t="n">
-        <v>2684.123866818089</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X38" t="n">
-        <v>2310.658108557009</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y38" t="n">
-        <v>1920.518776581197</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228008</v>
@@ -7259,19 +7259,19 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218345</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218345</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676413</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X40" t="n">
-        <v>468.9531604059532</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.1605812624231</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1881.708680670285</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C41" t="n">
-        <v>1512.746163729873</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D41" t="n">
-        <v>1512.746163729873</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E41" t="n">
-        <v>1126.957911131629</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F41" t="n">
-        <v>715.9720063420214</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
         <v>406.0926155839475</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3234.827259080597</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3028.849511464819</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3028.849511464819</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.542934265601</v>
+        <v>2697.786624121249</v>
       </c>
       <c r="W41" t="n">
-        <v>2641.774278995486</v>
+        <v>2697.786624121249</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.308520734407</v>
+        <v>2324.320865860169</v>
       </c>
       <c r="Y41" t="n">
-        <v>2268.308520734407</v>
+        <v>1934.181533884357</v>
       </c>
     </row>
     <row r="42">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.4482993600903</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218343</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
         <v>66.51211643218343</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1920.850034779555</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1699.083419349081</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1409.980552474725</v>
+        <v>1478.997588486954</v>
       </c>
       <c r="V43" t="n">
-        <v>1155.296064268838</v>
+        <v>1224.313100281067</v>
       </c>
       <c r="W43" t="n">
-        <v>865.8788942318776</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="X43" t="n">
-        <v>637.8893433338602</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y43" t="n">
-        <v>417.0967641903301</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1715.892666966216</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C44" t="n">
-        <v>1346.930150025805</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
@@ -7651,13 +7651,13 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2866.09759726723</v>
+        <v>2635.48282923636</v>
       </c>
       <c r="W44" t="n">
-        <v>2866.09759726723</v>
+        <v>2282.714173966246</v>
       </c>
       <c r="X44" t="n">
-        <v>2492.63183900615</v>
+        <v>1909.248415705166</v>
       </c>
       <c r="Y44" t="n">
-        <v>2102.492507030338</v>
+        <v>1519.109083729354</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.4780323548191</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C46" t="n">
-        <v>364.5418494269122</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218342</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1742.428664137924</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1742.428664137924</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1453.325797263567</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V46" t="n">
-        <v>1453.325797263567</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W46" t="n">
-        <v>1163.908627226606</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X46" t="n">
-        <v>935.919076328589</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y46" t="n">
-        <v>715.1264971850588</v>
+        <v>873.2974438277585</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>26.13373767211374</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157942</v>
+        <v>25.82445471157962</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>65.25087362574739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>149.2371260211864</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189688982</v>
+        <v>45.32591189688993</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.030432851515</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-8.503883084314845e-16</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23266,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>358.5862092445518</v>
       </c>
       <c r="F11" t="n">
-        <v>358.5862092445528</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>51.55114770987244</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>20.52579785133662</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>242.7389377106496</v>
+        <v>43.8862146983812</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160.8971509712868</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>70.72659415136822</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>377.1387452148711</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>6.365581397508898</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>133.1925716676632</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>82.55155771235553</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="F20" t="n">
-        <v>363.0444181520134</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>51.12460430110335</v>
       </c>
       <c r="T22" t="n">
-        <v>205.3567593966689</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>35.40024543611483</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>320.8996812621415</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>120.9189709667722</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.5414662356958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>248.720380827099</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>302.4169414391702</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>77.58351003045911</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>85.50995931386564</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>117.5495182394683</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>301.8736594056161</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>48.76788200980593</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>115.4307709392496</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>236.7440853346173</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>102.0009892577781</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>159.6457400831804</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>59.05392839791975</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>106.3881249561093</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>49.33295317258111</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>137.1539338988734</v>
+        <v>64.1566530209021</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>327.0855007190648</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>147.5982653254847</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,22 +25599,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>68.10750358912657</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.14213605696597</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>104.1411288029603</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>19.3169848848874</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25836,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>183.3889571555937</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>61.9467974762585</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>286.7973298304249</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>208.6313999077501</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>154.8576191056869</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>6.751800220378357</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812932.1179168978</v>
+        <v>812932.1179168979</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812932.1179168978</v>
+        <v>812932.117916898</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>812932.1179168979</v>
+        <v>812932.117916898</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812932.1179168978</v>
+        <v>812932.1179168979</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812932.1179168978</v>
+        <v>812932.1179168979</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812932.117916898</v>
+        <v>812932.1179168976</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812932.117916898</v>
+        <v>812932.1179168978</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812932.1179168978</v>
+        <v>812932.1179168979</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719634</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719626</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
+        <v>392146.6638165589</v>
+      </c>
+      <c r="F2" t="n">
         <v>392146.663816559</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>392146.663816559</v>
+      </c>
+      <c r="H2" t="n">
         <v>392146.6638165588</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>392146.6638165588</v>
       </c>
-      <c r="H2" t="n">
-        <v>392146.663816559</v>
-      </c>
-      <c r="I2" t="n">
-        <v>392146.6638165589</v>
-      </c>
       <c r="J2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="K2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.6638165591</v>
       </c>
       <c r="L2" t="n">
         <v>392146.663816559</v>
@@ -26352,10 +26352,10 @@
         <v>392146.663816559</v>
       </c>
       <c r="O2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.663816559</v>
       </c>
       <c r="P2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165591</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739501</v>
+        <v>176672.624173949</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819075</v>
+        <v>223886.3093819083</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911411</v>
+        <v>68999.15441911416</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.981546408</v>
+        <v>41076.98154640786</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946825</v>
+        <v>54988.29121946834</v>
       </c>
       <c r="M3" t="n">
         <v>47552.26579341485</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253016.7649073352</v>
+        <v>253016.7649073351</v>
       </c>
       <c r="C4" t="n">
-        <v>205717.364545022</v>
+        <v>205717.3645450223</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
-        <v>12210.17896214069</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="F4" t="n">
         <v>12210.17896214071</v>
@@ -26435,7 +26435,7 @@
         <v>12210.17896214071</v>
       </c>
       <c r="H4" t="n">
-        <v>12210.17896214071</v>
+        <v>12210.17896214072</v>
       </c>
       <c r="I4" t="n">
         <v>12210.17896214071</v>
@@ -26453,7 +26453,7 @@
         <v>12210.17896214071</v>
       </c>
       <c r="N4" t="n">
-        <v>12210.17896214076</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="O4" t="n">
         <v>12210.17896214071</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923116</v>
+        <v>75746.87167923107</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26484,7 +26484,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26496,16 +26496,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-524053.5310308312</v>
+        <v>-524053.5310308314</v>
       </c>
       <c r="C6" t="n">
-        <v>13962.15727375953</v>
+        <v>13962.15727376025</v>
       </c>
       <c r="D6" t="n">
-        <v>12527.97858251134</v>
+        <v>12527.97858251061</v>
       </c>
       <c r="E6" t="n">
-        <v>120080.9751777734</v>
+        <v>123209.5455460283</v>
       </c>
       <c r="F6" t="n">
-        <v>302153.9549949639</v>
+        <v>305282.5253632189</v>
       </c>
       <c r="G6" t="n">
-        <v>302153.9549949638</v>
+        <v>305282.5253632189</v>
       </c>
       <c r="H6" t="n">
-        <v>302153.9549949639</v>
+        <v>305282.525363219</v>
       </c>
       <c r="I6" t="n">
-        <v>302153.9549949638</v>
+        <v>305282.5253632186</v>
       </c>
       <c r="J6" t="n">
-        <v>233154.8005758497</v>
+        <v>236283.3709441046</v>
       </c>
       <c r="K6" t="n">
-        <v>261076.9734485557</v>
+        <v>264205.5438168111</v>
       </c>
       <c r="L6" t="n">
-        <v>247165.6637754957</v>
+        <v>250294.2341437505</v>
       </c>
       <c r="M6" t="n">
-        <v>254601.6892015491</v>
+        <v>257730.2595698041</v>
       </c>
       <c r="N6" t="n">
-        <v>302153.9549949638</v>
+        <v>305282.5253632189</v>
       </c>
       <c r="O6" t="n">
-        <v>302153.9549949638</v>
+        <v>305282.5253632189</v>
       </c>
       <c r="P6" t="n">
-        <v>302153.9549949639</v>
+        <v>305282.5253632191</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908062</v>
+        <v>751.4467899908054</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919669</v>
+        <v>423.3179548919659</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26962,13 +26962,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213279</v>
+        <v>137.3917762213271</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267332</v>
+        <v>182.6181021267338</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904606</v>
+        <v>159.6040748904596</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080722</v>
+        <v>217.266877208073</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015065</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904604</v>
+        <v>159.6040748904598</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080724</v>
+        <v>217.2668772080727</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022538</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904606</v>
+        <v>159.6040748904596</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080722</v>
+        <v>217.266877208073</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>347.5277463642897</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F2" t="n">
         <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>384.6394253649961</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>57.2161343864263</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>89.29475654555328</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27517,13 +27517,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>141.8488506293465</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27590,19 +27590,19 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>77.21597708824268</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>230.6968180999537</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>74.17388173845728</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539862</v>
+        <v>94.01296546539875</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.6252005425365</v>
+        <v>96.62520054253652</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813366</v>
+        <v>26.39357060907898</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
         <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>35.57443111963335</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>50.40517895830649</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
         <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>114.699885070052</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
         <v>200.4014587515235</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>149.1027453503168</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>47.06732354373202</v>
+        <v>104.3187684467266</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>89.82535797284069</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.02089161805349</v>
+        <v>3.020891618053487</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339031</v>
+        <v>30.93770628339028</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050073</v>
+        <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677676</v>
+        <v>256.3943999677674</v>
       </c>
       <c r="K5" t="n">
-        <v>384.268742159972</v>
+        <v>384.2687421599715</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159765</v>
+        <v>476.719354015976</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285353</v>
+        <v>530.4421353285347</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383298</v>
+        <v>539.0252436383292</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113104</v>
+        <v>508.9862526113099</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906147</v>
+        <v>434.4079907906143</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190741</v>
+        <v>326.2223097190737</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025527</v>
+        <v>189.7610831025525</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639398</v>
+        <v>68.83856774639391</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802916</v>
+        <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442792</v>
+        <v>0.2416713294442789</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546262</v>
+        <v>1.616319510546261</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395996</v>
+        <v>15.61024369395994</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328141</v>
+        <v>55.64959718328135</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433204</v>
+        <v>152.7067481433202</v>
       </c>
       <c r="K6" t="n">
-        <v>261.00015534992</v>
+        <v>261.0001553499197</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876874</v>
+        <v>350.946918287687</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449893</v>
+        <v>409.5385005449889</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345738</v>
+        <v>420.3777660345733</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587855</v>
+        <v>384.5635284587851</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077332</v>
+        <v>308.6461353077329</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970984</v>
+        <v>206.3217676970982</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670741</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633078</v>
+        <v>30.02242599633075</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807082</v>
+        <v>6.514901886807075</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043594</v>
+        <v>0.1063368099043593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950634</v>
+        <v>1.355067981950633</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952474</v>
+        <v>12.04778623952472</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720635</v>
+        <v>40.75058985720631</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390982</v>
+        <v>95.80330632390972</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029918</v>
+        <v>157.4342619029916</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165516</v>
+        <v>201.4616525165514</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706798</v>
+        <v>212.4130655706796</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379549</v>
+        <v>207.3623576379547</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488042</v>
+        <v>191.532699848804</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170112</v>
+        <v>163.889313017011</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886117</v>
+        <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843486</v>
+        <v>60.92878398843479</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544877</v>
+        <v>23.61513928544874</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879981</v>
+        <v>5.789835922879974</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548921</v>
+        <v>0.07391279901548914</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32086,7 +32086,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32806,10 +32806,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34228,10 +34228,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>174.36042823807</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108135</v>
+        <v>75.34849544108107</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149914</v>
+        <v>164.178891114991</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459893</v>
+        <v>240.9529390459888</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012626</v>
+        <v>300.095902101262</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417389</v>
+        <v>309.6121800417383</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896237</v>
+        <v>278.8880411896231</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353452</v>
+        <v>203.1749950353448</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446246</v>
+        <v>103.9166198446243</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>91.11999510240106</v>
+        <v>151.9601568170624</v>
       </c>
       <c r="K6" t="n">
-        <v>123.158716375561</v>
+        <v>272.3958423967471</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078132</v>
+        <v>212.3925385078128</v>
       </c>
       <c r="M6" t="n">
-        <v>267.404466622971</v>
+        <v>267.4044666229706</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512404</v>
+        <v>289.03605395124</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143411</v>
+        <v>241.9672840143407</v>
       </c>
       <c r="P6" t="n">
-        <v>174.671727893403</v>
+        <v>174.6717278934027</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.417281346926</v>
+        <v>66.33999361107664</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237048</v>
+        <v>2.444126207236948</v>
       </c>
       <c r="K7" t="n">
-        <v>135.164770077109</v>
+        <v>135.1647700771088</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768677</v>
+        <v>229.0516777768675</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325204</v>
+        <v>251.9969425325202</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171835</v>
+        <v>251.4945300171833</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628439</v>
+        <v>216.1178277628437</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819047</v>
+        <v>161.1678722819045</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691735</v>
+        <v>27.30642203691723</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127265</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
